--- a/dados/atividades-voluntariado.xlsx
+++ b/dados/atividades-voluntariado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61b286e7b92e5b7e/Documentos/autopesquisa-voluntariado-relatorio-2025/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{AEFB7DB5-8FA0-441B-A8B6-933B97C52DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B3123DB-07E2-4095-924C-16539EDFEBBD}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{AEFB7DB5-8FA0-441B-A8B6-933B97C52DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAAAA118-689F-4D2A-BD9C-35FA443D4CA9}"/>
   <bookViews>
     <workbookView xWindow="26340" yWindow="-17310" windowWidth="22125" windowHeight="15705" xr2:uid="{FB7C70E0-D635-4B3F-8807-FF4129F947DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>IC</t>
   </si>
@@ -65,9 +65,6 @@
     <t>IIPC</t>
   </si>
   <si>
-    <t>Correção de Erros no Website</t>
-  </si>
-  <si>
     <t>Diagramação de Nossa Evolução em Árabe</t>
   </si>
   <si>
@@ -108,6 +105,12 @@
   </si>
   <si>
     <t>Apoio à trasmissão do Fórum do Paradireito</t>
+  </si>
+  <si>
+    <t>Correção de Erros no Servidor do Site</t>
+  </si>
+  <si>
+    <t>Instalação de Aplicativo Web de Surveys no servidor da ISIC</t>
   </si>
 </sst>
 </file>
@@ -483,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E965991-874C-497F-9BD7-D16DB7626073}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -497,7 +500,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -511,10 +514,10 @@
         <v>2025</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -525,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -536,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -547,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -558,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -566,10 +569,10 @@
         <v>2025</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -580,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -602,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -613,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -624,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -635,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -654,10 +657,10 @@
         <v>2025</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -668,13 +671,24 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C15">
-    <sortCondition ref="B2:B15"/>
-    <sortCondition ref="C2:C15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C16">
+    <sortCondition ref="B2:B16"/>
+    <sortCondition ref="C2:C16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dados/atividades-voluntariado.xlsx
+++ b/dados/atividades-voluntariado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61b286e7b92e5b7e/Documentos/autopesquisa-voluntariado-relatorio-2025/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{AEFB7DB5-8FA0-441B-A8B6-933B97C52DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAAAA118-689F-4D2A-BD9C-35FA443D4CA9}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{AEFB7DB5-8FA0-441B-A8B6-933B97C52DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9804E452-2AE5-416F-865F-9236EDBDA42D}"/>
   <bookViews>
-    <workbookView xWindow="26340" yWindow="-17310" windowWidth="22125" windowHeight="15705" xr2:uid="{FB7C70E0-D635-4B3F-8807-FF4129F947DD}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="11472" xr2:uid="{FB7C70E0-D635-4B3F-8807-FF4129F947DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Atividades" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>IC</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Instalação de Aplicativo Web de Surveys no servidor da ISIC</t>
+  </si>
+  <si>
+    <t>Diagramação de Nossa Evolução em Árabe (ePub)</t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E965991-874C-497F-9BD7-D16DB7626073}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -638,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -649,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -660,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -668,10 +671,10 @@
         <v>2025</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -682,13 +685,24 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>2025</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C16">
-    <sortCondition ref="B2:B16"/>
-    <sortCondition ref="C2:C16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C17">
+    <sortCondition ref="B2:B17"/>
+    <sortCondition ref="C2:C17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
